--- a/service-system/target/classes/static/普通公路沥青路面厚度-钻芯法.xlsx
+++ b/service-system/target/classes/static/普通公路沥青路面厚度-钻芯法.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\jjgys\jjgys-parent\service-system\src\main\resources\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12910\Desktop\static\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269002BC-0C22-4E57-8662-1B18309F8A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C4FC25-4607-477F-AA1A-6A8139F89EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="连接线" sheetId="25" r:id="rId1"/>
@@ -1022,8 +1022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+    <sheetView view="pageLayout" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1561,8 +1561,7 @@
   <pageMargins left="0.98425196850393704" right="0.78740157480314998" top="0.78740157480314998" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.59055118110236204"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0">
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                      复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
@@ -1572,7 +1571,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -2110,8 +2109,7 @@
   <pageMargins left="0.98425196850393704" right="0.78740157480314998" top="0.78740157480314998" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.59055118110236204"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0">
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                      复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
@@ -3894,7 +3892,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -4432,8 +4430,7 @@
   <pageMargins left="0.98425196850393704" right="0.78740157480314998" top="0.78740157480314998" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.59055118110236204"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0">
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                      复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
@@ -4442,8 +4439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -4981,8 +4978,7 @@
   <pageMargins left="0.98425196850393704" right="0.78740157480314998" top="0.78740157480314998" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.59055118110236204"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0">
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                      复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
@@ -4992,7 +4988,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -5530,8 +5526,7 @@
   <pageMargins left="0.98425196850393704" right="0.78740157480314998" top="0.78740157480314998" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.59055118110236204"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0">
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                      复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
@@ -5541,7 +5536,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -6079,8 +6074,7 @@
   <pageMargins left="0.98425196850393704" right="0.78740157480314998" top="0.78740157480314998" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.59055118110236204"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0">
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                      复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
@@ -6090,7 +6084,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -6628,8 +6622,7 @@
   <pageMargins left="0.98425196850393704" right="0.78740157480314998" top="0.78740157480314998" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.59055118110236204"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0">
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                      复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
@@ -6639,7 +6632,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -7177,8 +7170,7 @@
   <pageMargins left="0.98425196850393704" right="0.78740157480314998" top="0.78740157480314998" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.59055118110236204"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0">
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                      复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
@@ -7188,7 +7180,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -7726,8 +7718,7 @@
   <pageMargins left="0.98425196850393704" right="0.78740157480314998" top="0.78740157480314998" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.59055118110236204"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0">
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                      复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
@@ -7737,7 +7728,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -8275,8 +8266,7 @@
   <pageMargins left="0.98425196850393704" right="0.78740157480314998" top="0.78740157480314998" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.59055118110236204"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0">
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                      复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
 </worksheet>
 </file>